--- a/biology/Origine et évolution du vivant/Protostomia/Protostomia.xlsx
+++ b/biology/Origine et évolution du vivant/Protostomia/Protostomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Protostomiens ou Protostomes (Protostomia) sont un très grand clade d'animaux bilatériens[1]. Il s'agit du groupe frère des deutérostomiens.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Protostomiens ou Protostomes (Protostomia) sont un très grand clade d'animaux bilatériens. Il s'agit du groupe frère des deutérostomiens.
 Ce groupe a été historiquement caractérisé sur des critères embryologiques, notamment le devenir du blastopore. Celui-ci donnerait la bouche lors du développement de l'embryon des protostomiens, par opposition aux deutérostomiens où la bouche est néoformée. Il a ensuite été observé que de nombreux protostomiens ont un développement de type deutérostome et les critères embryologiques ont été abandonnés[réf. nécessaire]. Par ailleurs, les clades compris dans les protostomiens ont subi de nombreux remaniements et la composition de ce groupe est aujourd'hui très différente de celle de 1908.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme protostomien vient du grec ancien : πρῶτος (prỗtos, « premier ») et στόμα (stóma, « bouche »).
 </t>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractérisation et composition historique
-La caractérisation est basée sur des critères embryologiques. Le nom, qui signifie en grec ancien « bouche en premier », décrit leur particularité principale :
+          <t>Caractérisation et composition historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La caractérisation est basée sur des critères embryologiques. Le nom, qui signifie en grec ancien « bouche en premier », décrit leur particularité principale :
 lors de l'embryogénèse, après la phase de gastrulation, le blastopore deviendra la bouche, l'anus nécessitant le percement d'un pore secondairement à la mise en place des tissus (il existe des exceptions comme chez les Annélides chez qui bouche et anus dérivent tous deux du blastopore)[réf. nécessaire].
 Le clivage cellulaire de type spiral lors de la segmentation (premières divisions de l'œuf) et la détermination précoce des cellules font partie des autres caractéristiques fondamentales. En effet, si on enlève une cellule au stade 4 cellules de l'embryon, celui-ci meurt incapable de se développer contrairement aux deutérostomiens chez qui les cellules peuvent être reprogrammées jusqu'assez tard lors du développement[réf. nécessaire]. 
 Enfin le cœlome est schizocœle. Le mésoderme forme juste après la gastrulation une petite masse qui entoure le blastopore, entre l'endoderme et l'ectoderme. Cette masse originellement compacte va se creuser pour former le cœlome[réf. nécessaire]. 
@@ -581,9 +600,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme selon les études de Marlétaz et Yamazaki[2],[3]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme selon les études de Marlétaz et Yamazaki,:
 </t>
         </is>
       </c>
@@ -612,9 +633,11 @@
           <t>Liste des embranchements actuels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (28 septembre 2016)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (28 septembre 2016) :
 super-embranchement Chaetognathi Leuckart, 1854:
 Chaetognatha Hyman, 1959
 super-embranchement Ecdysozoa Aguinaldo et al., 1997:
@@ -672,9 +695,11 @@
           <t>Liste des embranchements fossiles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (5 juillet 2016)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (5 juillet 2016) :
 Amiskwiida †
 Lobopodia †
 Place des Protostomiens parmi les animaux
@@ -706,7 +731,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Libbie Henrietta Hyman, The Invertebrates, 1940.</t>
         </is>
